--- a/Basegame Character Card Stats.xlsx
+++ b/Basegame Character Card Stats.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Stuff\Coding\ModdingSlayTheSpire\my_mods\git\StS-DefaultModBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\IdeaProjects\StSMod\StSMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4D4958-2D4A-4279-92AE-904F3C9F1E52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2131B90-4CA3-4398-AF56-1F66A279BB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="278" xr2:uid="{AD2E1A73-3376-4E41-A344-6779F4DBBFBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="278" activeTab="1" xr2:uid="{AD2E1A73-3376-4E41-A344-6779F4DBBFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ironclad" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk529464078" localSheetId="0">Sheet1!#REF!</definedName>
@@ -23,12 +24,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
   <si>
     <t>Common</t>
   </si>
@@ -92,6 +103,72 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>Dmg</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Exhaust</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Armaments</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Body Slam</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Clash</t>
+  </si>
+  <si>
+    <t>Cleave</t>
+  </si>
+  <si>
+    <t>AOE</t>
+  </si>
+  <si>
+    <t>ScaleDmg</t>
+  </si>
+  <si>
+    <t>Clothesline</t>
+  </si>
+  <si>
+    <t>Flex</t>
+  </si>
+  <si>
+    <t>Havoc</t>
+  </si>
+  <si>
+    <t>Headbutt</t>
   </si>
 </sst>
 </file>
@@ -237,6 +314,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -244,15 +330,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -265,6 +342,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -288,15 +368,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -325,6 +396,21 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -344,15 +430,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -387,6 +464,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -406,21 +492,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -437,6 +508,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -515,17 +592,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FF4810EE-C708-4E37-835D-7BB9DD96E48C}" name="Cost" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4B7223C6-8335-433A-9378-28EFCCDBF04D}" name="Silent" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2C581A80-D6F5-4915-9D06-BA8D353C068D}" name="Ironclad" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BA528A4A-ED02-4115-906A-32084823D809}" name="Defect" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{FF4810EE-C708-4E37-835D-7BB9DD96E48C}" name="Cost" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{4B7223C6-8335-433A-9378-28EFCCDBF04D}" name="Silent" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{2C581A80-D6F5-4915-9D06-BA8D353C068D}" name="Ironclad" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{BA528A4A-ED02-4115-906A-32084823D809}" name="Defect" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Gremy Simple Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53B8ADF9-4707-47E1-BDFA-3F006EA823AB}" name="Table24" displayName="Table24" ref="F6:I11" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53B8ADF9-4707-47E1-BDFA-3F006EA823AB}" name="Table24" displayName="Table24" ref="F6:I11" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="F6:I10" xr:uid="{CE12703D-A0E8-4EAA-9688-E5928D5B5BFB}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -533,23 +610,23 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{28832C6B-C5A0-4B28-9B43-B972B39FC7E3}" name="Rarity" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{BBDEB0D6-F456-42CF-9E45-0769D86C8EBC}" name="Silent" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{FE11044C-0B04-4341-B805-DD3FC475A98D}" name="Ironclad" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{3473F5BA-E9A0-42BC-A801-C0AA1A01137A}" name="Defect" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{28832C6B-C5A0-4B28-9B43-B972B39FC7E3}" name="Rarity" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{BBDEB0D6-F456-42CF-9E45-0769D86C8EBC}" name="Silent" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{FE11044C-0B04-4341-B805-DD3FC475A98D}" name="Ironclad" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{3473F5BA-E9A0-42BC-A801-C0AA1A01137A}" name="Defect" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="Gremy Simple Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FEC834A-9605-4DAB-8FC8-559DFE95E7CE}" name="Table242" displayName="Table242" ref="F16:I20" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FEC834A-9605-4DAB-8FC8-559DFE95E7CE}" name="Table242" displayName="Table242" ref="F16:I20" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="F16:I19" xr:uid="{AB9EBA6F-19E5-4878-B4BF-640070BDE1CB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{10488BD1-9981-44C8-B679-8617EA80CFDF}" name="Type" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2BD6E313-819A-4120-B615-A73747A8BFF9}" name="Silent" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{29092D1A-1D35-4F6E-9938-E644E403DC81}" name="Ironclad" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{D8133038-6E03-4174-95AC-6C4D249B7298}" name="Defect" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{10488BD1-9981-44C8-B679-8617EA80CFDF}" name="Type" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2BD6E313-819A-4120-B615-A73747A8BFF9}" name="Silent" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{29092D1A-1D35-4F6E-9938-E644E403DC81}" name="Ironclad" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D8133038-6E03-4174-95AC-6C4D249B7298}" name="Defect" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Gremy Simple Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -854,59 +931,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7173905A-9702-4724-9D18-DFCD7AC58563}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.42578125" style="4"/>
+    <col min="1" max="16384" width="12.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -932,7 +1009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -958,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>0</v>
       </c>
@@ -984,7 +1061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1010,7 +1087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -1036,7 +1113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -1065,7 +1142,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1096,25 +1173,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="F15" s="9" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1128,12 +1205,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="F17" s="12" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="F17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="4">
@@ -1146,10 +1223,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="4">
@@ -1162,10 +1239,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="4">
@@ -1178,7 +1255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="F20" s="5" t="s">
@@ -1197,22 +1274,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G30" s="5"/>
     </row>
   </sheetData>
@@ -1231,4 +1308,423 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF0E3F6-00D1-4268-AA17-60C10E34C5C6}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>